--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl21b-Ackr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl21b-Ackr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,10 +540,10 @@
         <v>0.379251</v>
       </c>
       <c r="I2">
-        <v>0.5842846710605375</v>
+        <v>0.733230478333749</v>
       </c>
       <c r="J2">
-        <v>0.6782743529807329</v>
+        <v>0.8047954435010685</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +552,28 @@
         <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.09539</v>
+        <v>0.1631145</v>
       </c>
       <c r="N2">
-        <v>0.19078</v>
+        <v>0.326229</v>
       </c>
       <c r="O2">
-        <v>0.3348558664133727</v>
+        <v>0.7212828052797984</v>
       </c>
       <c r="P2">
-        <v>0.2740359616539259</v>
+        <v>0.7212828052797984</v>
       </c>
       <c r="Q2">
-        <v>0.01205891763</v>
+        <v>0.0206204457465</v>
       </c>
       <c r="R2">
-        <v>0.07235350578000001</v>
+        <v>0.123722674479</v>
       </c>
       <c r="S2">
-        <v>0.1956511497600287</v>
+        <v>0.5288665363292149</v>
       </c>
       <c r="T2">
-        <v>0.1858715645842695</v>
+        <v>0.5804851151648501</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +602,10 @@
         <v>0.379251</v>
       </c>
       <c r="I3">
-        <v>0.5842846710605375</v>
+        <v>0.733230478333749</v>
       </c>
       <c r="J3">
-        <v>0.6782743529807329</v>
+        <v>0.8047954435010685</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -617,33 +614,33 @@
         <v>0.5</v>
       </c>
       <c r="M3">
-        <v>0.06303049999999999</v>
+        <v>0.0630305</v>
       </c>
       <c r="N3">
         <v>0.126061</v>
       </c>
       <c r="O3">
-        <v>0.2212614811612127</v>
+        <v>0.2787171947202017</v>
       </c>
       <c r="P3">
-        <v>0.1810737360418049</v>
+        <v>0.2787171947202017</v>
       </c>
       <c r="Q3">
-        <v>0.007968126718499998</v>
+        <v>0.0079681267185</v>
       </c>
       <c r="R3">
         <v>0.047808760311</v>
       </c>
       <c r="S3">
-        <v>0.1292796917386465</v>
+        <v>0.2043639420045341</v>
       </c>
       <c r="T3">
-        <v>0.1228176711555592</v>
+        <v>0.2243103283362184</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -652,55 +649,55 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.126417</v>
+        <v>0.045994</v>
       </c>
       <c r="H4">
-        <v>0.379251</v>
+        <v>0.091988</v>
       </c>
       <c r="I4">
-        <v>0.5842846710605375</v>
+        <v>0.266769521666251</v>
       </c>
       <c r="J4">
-        <v>0.6782743529807329</v>
+        <v>0.1952045564989315</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.1264483333333333</v>
+        <v>0.1631145</v>
       </c>
       <c r="N4">
-        <v>0.379345</v>
+        <v>0.326229</v>
       </c>
       <c r="O4">
-        <v>0.4438826524254145</v>
+        <v>0.7212828052797984</v>
       </c>
       <c r="P4">
-        <v>0.5448903023042693</v>
+        <v>0.7212828052797984</v>
       </c>
       <c r="Q4">
-        <v>0.015985218955</v>
+        <v>0.007502288313</v>
       </c>
       <c r="R4">
-        <v>0.143866970595</v>
+        <v>0.030009153252</v>
       </c>
       <c r="S4">
-        <v>0.2593538295618622</v>
+        <v>0.1924162689505835</v>
       </c>
       <c r="T4">
-        <v>0.3695851172409042</v>
+        <v>0.1407976901149482</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,25 +711,25 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.089945</v>
+        <v>0.045994</v>
       </c>
       <c r="H5">
-        <v>0.17989</v>
+        <v>0.091988</v>
       </c>
       <c r="I5">
-        <v>0.4157153289394626</v>
+        <v>0.266769521666251</v>
       </c>
       <c r="J5">
-        <v>0.321725647019267</v>
+        <v>0.1952045564989315</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,152 +738,28 @@
         <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.09539</v>
+        <v>0.0630305</v>
       </c>
       <c r="N5">
-        <v>0.19078</v>
+        <v>0.126061</v>
       </c>
       <c r="O5">
-        <v>0.3348558664133727</v>
+        <v>0.2787171947202017</v>
       </c>
       <c r="P5">
-        <v>0.2740359616539259</v>
+        <v>0.2787171947202017</v>
       </c>
       <c r="Q5">
-        <v>0.008579853550000001</v>
+        <v>0.002899024817</v>
       </c>
       <c r="R5">
-        <v>0.0343194142</v>
+        <v>0.011596099268</v>
       </c>
       <c r="S5">
-        <v>0.1392047166533439</v>
+        <v>0.07435325271566755</v>
       </c>
       <c r="T5">
-        <v>0.08816439706965634</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.089945</v>
-      </c>
-      <c r="H6">
-        <v>0.17989</v>
-      </c>
-      <c r="I6">
-        <v>0.4157153289394626</v>
-      </c>
-      <c r="J6">
-        <v>0.321725647019267</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.5</v>
-      </c>
-      <c r="M6">
-        <v>0.06303049999999999</v>
-      </c>
-      <c r="N6">
-        <v>0.126061</v>
-      </c>
-      <c r="O6">
-        <v>0.2212614811612127</v>
-      </c>
-      <c r="P6">
-        <v>0.1810737360418049</v>
-      </c>
-      <c r="Q6">
-        <v>0.005669278322499999</v>
-      </c>
-      <c r="R6">
-        <v>0.02267711328999999</v>
-      </c>
-      <c r="S6">
-        <v>0.09198178942256625</v>
-      </c>
-      <c r="T6">
-        <v>0.05825606488624566</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.089945</v>
-      </c>
-      <c r="H7">
-        <v>0.17989</v>
-      </c>
-      <c r="I7">
-        <v>0.4157153289394626</v>
-      </c>
-      <c r="J7">
-        <v>0.321725647019267</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.1264483333333333</v>
-      </c>
-      <c r="N7">
-        <v>0.379345</v>
-      </c>
-      <c r="O7">
-        <v>0.4438826524254145</v>
-      </c>
-      <c r="P7">
-        <v>0.5448903023042693</v>
-      </c>
-      <c r="Q7">
-        <v>0.01137339534166667</v>
-      </c>
-      <c r="R7">
-        <v>0.06824037205</v>
-      </c>
-      <c r="S7">
-        <v>0.1845288228635523</v>
-      </c>
-      <c r="T7">
-        <v>0.175305185063365</v>
+        <v>0.05440686638398331</v>
       </c>
     </row>
   </sheetData>
